--- a/Sensors/list_of_sensors.xlsx
+++ b/Sensors/list_of_sensors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/nc20mr_id_aau_dk/Documents/Dokumenter/GitHub/AAU-Learning-Factory-Data-driven/Sensors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_EB4DAB41A870FC88DADFF736D77FA0739A7F0682" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2202582C-8437-4459-9B68-F3A6DA42F23A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_EB4DAB41A870FC88DADFF736D77FA0739A7F0682" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7605784-8048-4380-A221-E2C669F04CB0}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="480" windowWidth="24900" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19515" yWindow="5460" windowWidth="17235" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,12 +416,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="92.5703125" customWidth="1"/>
   </cols>
@@ -494,14 +494,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" display="https://dk.rs-online.com/web/p/sensor-udvikling/1346463/?cm_mmc=DK-PLA-DS3A-_-google-_-CSS_DK_DK_Raspberry_Pi_%26_Arduino_og_udviklingsv%C3%A6rkt%C3%B8j_Whoop-_-(DK:Whoop!)+Sensor-udvikling-_-1346463&amp;matchtype=&amp;aud-826607888587:pla-333448502146&amp;gclid=Cj0K" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://dk.rs-online.com/web/p/sensor-udvikling/1346463/?cm_mmc=DK-PLA-DS3A-_-google-_-CSS_DK_DK_Raspberry_Pi_%26_Arduino_og_udviklingsv%C3%A6rkt%C3%B8j_Whoop-_-(DK:Whoop!)+Sensor-udvikling-_-1346463&amp;matchtype=&amp;aud-826607888587:pla-333448502146&amp;gclid=Cj0KCQjw5JSLBhCxARIsAHgO2ScXUaACLlXdenm5INfFL5qBJpMpJbLapJkwcfxWVFqWVqXZkAjLlOQaAko4EALw_wcB&amp;gclsrc=aw.ds" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -512,6 +512,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BD65A26FA77DF342964CF643D55D1BCE" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="b4dbb8bdfa7aaa022995a3af1e5fad6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e53402f-9c5f-4b2a-86e5-2db5dc9ba8f7" xmlns:ns4="6a458319-5c69-4bc5-ac12-1569dcd443a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77cfbd17ec34764fe6b7101b730c3d8a" ns3:_="" ns4:_="">
     <xsd:import namespace="6e53402f-9c5f-4b2a-86e5-2db5dc9ba8f7"/>
@@ -726,15 +735,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F790368A-E1CA-4A5B-A222-11696338DE5A}">
   <ds:schemaRefs>
@@ -745,6 +745,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837B8B8B-B11B-45E3-9C07-617F07F76875}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC6D425F-C3FE-4808-B973-148D69F1F34B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -761,12 +769,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837B8B8B-B11B-45E3-9C07-617F07F76875}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>